--- a/data/trans_dic/P08_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P08_1_R-Habitat-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.2679816194111703</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.2250524330991788</v>
+        <v>0.2250524330991789</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1569779062794263</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08559670007202189</v>
+        <v>0.0844597848562461</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1272518068143344</v>
+        <v>0.1244026396672413</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1294167653871598</v>
+        <v>0.1300615271552777</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1378276138545015</v>
+        <v>0.1388587996450586</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1784243289084956</v>
+        <v>0.178704295240142</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2442549966412477</v>
+        <v>0.2416079107361472</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2341197423937685</v>
+        <v>0.2365003694324</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.202548474727047</v>
+        <v>0.2016829368886183</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.139381725673181</v>
+        <v>0.138168544472434</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1917792309446922</v>
+        <v>0.1923000850993138</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1897968609955974</v>
+        <v>0.1887372748460924</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1787403304690951</v>
+        <v>0.1800706652131818</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1300668790513324</v>
+        <v>0.1321636085814897</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1840943039582063</v>
+        <v>0.1862170078503166</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.184879685616346</v>
+        <v>0.186773490999419</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.195955287885244</v>
+        <v>0.1974065412919339</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2394920648171295</v>
+        <v>0.2374949771646988</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3118670739993161</v>
+        <v>0.3091101265694046</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.304126920738691</v>
+        <v>0.3050850300254874</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2476466763829439</v>
+        <v>0.2482674078858624</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1794439713254881</v>
+        <v>0.1763538792675134</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2371139008294604</v>
+        <v>0.236223730111854</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2343896696183582</v>
+        <v>0.232767068799886</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2142628933136317</v>
+        <v>0.2146814851702151</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09280176424565657</v>
+        <v>0.0941180155716162</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1349327226172157</v>
+        <v>0.1358465285830465</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1254385089559657</v>
+        <v>0.1278759662575761</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.09404550434562128</v>
+        <v>0.09365839301163124</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.187277227451254</v>
+        <v>0.1865617869822503</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2149194749929064</v>
+        <v>0.2164340736732882</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2056027011471931</v>
+        <v>0.2089895087950801</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.194584924481561</v>
+        <v>0.1969351224052687</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1473881583356949</v>
+        <v>0.1464599376505909</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1851139573607364</v>
+        <v>0.1845275770749335</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1732521087335308</v>
+        <v>0.1746967153004395</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1494357627447112</v>
+        <v>0.1512092901437848</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.133088451433941</v>
+        <v>0.1338281930077072</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1836757488280246</v>
+        <v>0.1862543718339106</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1711251132090385</v>
+        <v>0.1711251801375172</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.132481724263455</v>
+        <v>0.134514780992333</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2425841471657133</v>
+        <v>0.2414317777707745</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2717746487204867</v>
+        <v>0.2730408370690868</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2629112366128772</v>
+        <v>0.2638562745900441</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2355247043009776</v>
+        <v>0.2345143971503635</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1798383061184582</v>
+        <v>0.1798128308445736</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2208054909471921</v>
+        <v>0.2209805086982345</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2088051817271663</v>
+        <v>0.2098729469387739</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1780097157705887</v>
+        <v>0.180163242062365</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09898662973528478</v>
+        <v>0.09764482945019833</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.09542395586809146</v>
+        <v>0.09759580589981436</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1050100090876894</v>
+        <v>0.1048930048954461</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1428465818118744</v>
+        <v>0.1447742461553712</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2119487827452081</v>
+        <v>0.2126396332003567</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2057515695874889</v>
+        <v>0.205245823398255</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1807434173643669</v>
+        <v>0.1809471852186595</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1885873069427573</v>
+        <v>0.1879274902972972</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1638911528252097</v>
+        <v>0.1649868400587828</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1588850049281548</v>
+        <v>0.1587875460860991</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1505520437649049</v>
+        <v>0.1488395211586697</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.17415899655468</v>
+        <v>0.1756515513244836</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.15011418953567</v>
+        <v>0.1504607268090819</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1511550087746567</v>
+        <v>0.1487084512664425</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1557837687170582</v>
+        <v>0.156371679689503</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1988887614894286</v>
+        <v>0.1991587156638542</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2802131193567679</v>
+        <v>0.2763684066335963</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2684513564463327</v>
+        <v>0.268005769609379</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.243266644441211</v>
+        <v>0.2398338386688464</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2362274023861803</v>
+        <v>0.2351686696057203</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2063056498030115</v>
+        <v>0.2038867214036597</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2014215362482729</v>
+        <v>0.2022967256162068</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1893868155595305</v>
+        <v>0.1905664494488083</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2107216909136896</v>
+        <v>0.2110348894651975</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.08794916474556418</v>
+        <v>0.08872474084632559</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1231356890461771</v>
+        <v>0.124618677335553</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1056564034429536</v>
+        <v>0.1067189090305831</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1232345687621189</v>
+        <v>0.1230555149816168</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1754334979290125</v>
+        <v>0.1764153598043474</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2330651364285546</v>
+        <v>0.2334140550632691</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1796381561495123</v>
+        <v>0.1775287019400907</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2154766650410775</v>
+        <v>0.2154649083600614</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1410134920105842</v>
+        <v>0.1388861590570104</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1881021601530352</v>
+        <v>0.1878635984000924</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1502998406652006</v>
+        <v>0.1505644551687651</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1788157731484554</v>
+        <v>0.1778902211442089</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1278173606586135</v>
+        <v>0.1273512293494603</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1719249593910374</v>
+        <v>0.1731325956558688</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1484208047662513</v>
+        <v>0.1503480835108444</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1650662362636988</v>
+        <v>0.1670576095487672</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2266084574494</v>
+        <v>0.2273001117277975</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2876543009726902</v>
+        <v>0.2888424078923488</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2332425087219998</v>
+        <v>0.2309837332699928</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2584364301717336</v>
+        <v>0.258523041693007</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1734230747088196</v>
+        <v>0.1729078833351264</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2247166439932302</v>
+        <v>0.2252825060750322</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1856928851207317</v>
+        <v>0.1849110273477306</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2098206683219088</v>
+        <v>0.2082180893833158</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1011213096550682</v>
+        <v>0.1014001355431035</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.135658691816509</v>
+        <v>0.1334273478283065</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1278860683030762</v>
+        <v>0.1264990985291969</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1334884260398892</v>
+        <v>0.1337342598383922</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2002753438376749</v>
+        <v>0.2025992939548414</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2393459071303144</v>
+        <v>0.2379967070021507</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2129777440911739</v>
+        <v>0.2111016324333862</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2114499404722376</v>
+        <v>0.2109039134789336</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1548568039672117</v>
+        <v>0.1552707767782657</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1910438140241653</v>
+        <v>0.1913351664282692</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1732995289098441</v>
+        <v>0.1733610084496658</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1768177039552378</v>
+        <v>0.1764315771655129</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1226355675215334</v>
+        <v>0.1226101072644325</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1608382411302677</v>
+        <v>0.1592762756828556</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1511042882178069</v>
+        <v>0.1508598685778452</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1572366495413056</v>
+        <v>0.1572356640805934</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.228585298546577</v>
+        <v>0.2301422573582375</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2692585622680434</v>
+        <v>0.2684102749537558</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2408640631379693</v>
+        <v>0.2416316425710842</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2330756651412099</v>
+        <v>0.2324691972835762</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1729332509087108</v>
+        <v>0.1728210640319993</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2109624468616828</v>
+        <v>0.2107990340238107</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1935322187205483</v>
+        <v>0.1924570061218403</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1931830534243041</v>
+        <v>0.1927015974805429</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>59405</v>
+        <v>58616</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>89518</v>
+        <v>87513</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>87330</v>
+        <v>87766</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>95199</v>
+        <v>95911</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>122819</v>
+        <v>123011</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>170258</v>
+        <v>168413</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>157525</v>
+        <v>159127</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>148707</v>
+        <v>148072</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>192676</v>
+        <v>190999</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>268590</v>
+        <v>269320</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>255778</v>
+        <v>254350</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>254685</v>
+        <v>256581</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>90268</v>
+        <v>91723</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>129505</v>
+        <v>130998</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>124757</v>
+        <v>126035</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>135348</v>
+        <v>136351</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>164855</v>
+        <v>163480</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>217387</v>
+        <v>215465</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>204628</v>
+        <v>205273</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>181817</v>
+        <v>182273</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>248057</v>
+        <v>243785</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>332083</v>
+        <v>330836</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>315873</v>
+        <v>313686</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>305301</v>
+        <v>305897</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>89257</v>
+        <v>90523</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>137354</v>
+        <v>138285</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>128252</v>
+        <v>130744</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>98646</v>
+        <v>98240</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>181358</v>
+        <v>180665</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>221836</v>
+        <v>223400</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>214426</v>
+        <v>217958</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>208369</v>
+        <v>210886</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>284488</v>
+        <v>282696</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>379508</v>
+        <v>378306</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>357825</v>
+        <v>360809</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>316767</v>
+        <v>320527</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>128004</v>
+        <v>128716</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>186972</v>
+        <v>189597</v>
       </c>
       <c r="E11" s="6" t="n">
         <v>174964</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>138962</v>
+        <v>141095</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>234917</v>
+        <v>233801</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>280521</v>
+        <v>281828</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>274194</v>
+        <v>275179</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>252209</v>
+        <v>251127</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>347123</v>
+        <v>347073</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>452680</v>
+        <v>453039</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>431255</v>
+        <v>433460</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>377337</v>
+        <v>381902</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>67163</v>
+        <v>66253</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>72295</v>
+        <v>73941</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>79761</v>
+        <v>79672</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>114716</v>
+        <v>116264</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>144939</v>
+        <v>145412</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>159905</v>
+        <v>159512</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>141886</v>
+        <v>142046</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>153182</v>
+        <v>152646</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>223277</v>
+        <v>224770</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>243856</v>
+        <v>243707</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>232537</v>
+        <v>229892</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>281325</v>
+        <v>283736</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>101854</v>
+        <v>102089</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>114519</v>
+        <v>112665</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>118326</v>
+        <v>118772</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>159722</v>
+        <v>159939</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>191621</v>
+        <v>188992</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>208633</v>
+        <v>208287</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>190967</v>
+        <v>188272</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>191878</v>
+        <v>191018</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>281061</v>
+        <v>277765</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>309141</v>
+        <v>310484</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>292520</v>
+        <v>294342</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>340385</v>
+        <v>340891</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>82868</v>
+        <v>83598</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>116700</v>
+        <v>118106</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>99060</v>
+        <v>100056</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>122010</v>
+        <v>121833</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>182207</v>
+        <v>183227</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>245161</v>
+        <v>245528</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>187503</v>
+        <v>185301</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>241127</v>
+        <v>241114</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>279324</v>
+        <v>275110</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>376137</v>
+        <v>375660</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>297796</v>
+        <v>298320</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>377141</v>
+        <v>375189</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>120432</v>
+        <v>119993</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>162940</v>
+        <v>164085</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>139154</v>
+        <v>140961</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>163426</v>
+        <v>165397</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>235358</v>
+        <v>236077</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>302584</v>
+        <v>303834</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>243454</v>
+        <v>241096</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>289201</v>
+        <v>289298</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>343522</v>
+        <v>342502</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>449352</v>
+        <v>450484</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>367922</v>
+        <v>366373</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>442534</v>
+        <v>439154</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>331328</v>
+        <v>332242</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>464872</v>
+        <v>457226</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>434090</v>
+        <v>429382</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>471583</v>
+        <v>472451</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>676770</v>
+        <v>684623</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>851667</v>
+        <v>846866</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>754909</v>
+        <v>748259</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>790044</v>
+        <v>788004</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1030687</v>
+        <v>1033442</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1334458</v>
+        <v>1336493</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1202507</v>
+        <v>1202933</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1285302</v>
+        <v>1282495</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>401821</v>
+        <v>401737</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>551157</v>
+        <v>545805</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>512901</v>
+        <v>512071</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>555480</v>
+        <v>555476</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>772435</v>
+        <v>777696</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>958105</v>
+        <v>955087</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>853753</v>
+        <v>856474</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>870845</v>
+        <v>868579</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1150999</v>
+        <v>1150252</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1473591</v>
+        <v>1472450</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1342899</v>
+        <v>1335438</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1404263</v>
+        <v>1400763</v>
       </c>
     </row>
     <row r="24">
